--- a/topeducation/examen.xlsx
+++ b/topeducation/examen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hector\Documents\2-2023\MINGESO\proyecto-mingeso\topeducation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1095E2D0-A60C-4896-A435-41BA8F4EE20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0A767DD-D764-4FCB-8312-5B4ED0C2FB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9FE7E4FF-573C-4D4F-875E-75FCB868B313}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6458D67F-A596-4B9E-98DC-F62F15BBE9B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>rut</t>
   </si>
   <si>
+    <t>fecha</t>
+  </si>
+  <si>
     <t>puntaje</t>
   </si>
   <si>
-    <t>fecha</t>
-  </si>
-  <si>
-    <t>20.285.942-9</t>
-  </si>
-  <si>
-    <t>12.345.213-9</t>
+    <t>19.234.554-8</t>
+  </si>
+  <si>
+    <t>20.234.343-7</t>
+  </si>
+  <si>
+    <t>18.544.321-5</t>
+  </si>
+  <si>
+    <t>12.345.234-2</t>
+  </si>
+  <si>
+    <t>19.234.235-8</t>
+  </si>
+  <si>
+    <t>12.345.234-1</t>
+  </si>
+  <si>
+    <t>20.285.942-3</t>
   </si>
 </sst>
 </file>
@@ -86,9 +101,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,11 +418,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1818D6-D052-4938-8E6A-FD3870918027}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574F55A7-86D2-494C-BBA7-13891E765C20}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,10 +432,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -427,10 +443,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>45209</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
+        <v>45198</v>
+      </c>
+      <c r="C2" s="2">
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -438,208 +454,68 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>45209</v>
-      </c>
-      <c r="C3">
+        <v>45198</v>
+      </c>
+      <c r="C3" s="2">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45198</v>
+      </c>
+      <c r="C4" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45198</v>
+      </c>
+      <c r="C5" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45198</v>
+      </c>
+      <c r="C6" s="2">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45198</v>
+      </c>
+      <c r="C7" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45198</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ADB8BE51ABCB134BB556BBD04A0D0006" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="49946789bc3175a7106bc05db9ba214d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c7a7d1cd-266d-42d0-a350-836f2575b9c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1725847b1d930b4ba56997208dae0bb4" ns3:_="">
-    <xsd:import namespace="c7a7d1cd-266d-42d0-a350-836f2575b9c8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c7a7d1cd-266d-42d0-a350-836f2575b9c8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEBCB8F1-66D6-444B-8D69-E53BC95A0306}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c7a7d1cd-266d-42d0-a350-836f2575b9c8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0174EC60-02EE-4CAD-9728-FA08A34031E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14B741FD-795B-4803-9E97-9AAE2C20B0E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c7a7d1cd-266d-42d0-a350-836f2575b9c8"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/topeducation/examen.xlsx
+++ b/topeducation/examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hector\Documents\2-2023\MINGESO\proyecto-mingeso\topeducation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0A767DD-D764-4FCB-8312-5B4ED0C2FB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7AD7C5-FDD3-41AB-AEC5-3B82292C7BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6458D67F-A596-4B9E-98DC-F62F15BBE9B5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>rut</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>20.285.942-3</t>
+  </si>
+  <si>
+    <t>123.123.123</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574F55A7-86D2-494C-BBA7-13891E765C20}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,6 +518,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45198</v>
+      </c>
+      <c r="C9" s="2">
+        <v>900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/topeducation/examen.xlsx
+++ b/topeducation/examen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hector\Documents\2-2023\MINGESO\proyecto-mingeso\topeducation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7AD7C5-FDD3-41AB-AEC5-3B82292C7BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CD8D47-5815-46D8-874E-18FEDDB0D5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6458D67F-A596-4B9E-98DC-F62F15BBE9B5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>rut</t>
   </si>
@@ -68,15 +68,26 @@
     <t>20.285.942-3</t>
   </si>
   <si>
-    <t>123.123.123</t>
+    <t>rut1</t>
+  </si>
+  <si>
+    <t>rut2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -104,10 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574F55A7-86D2-494C-BBA7-13891E765C20}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="A1:C9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,6 +541,20 @@
         <v>900</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45198</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/topeducation/examen.xlsx
+++ b/topeducation/examen.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hector\Documents\2-2023\MINGESO\proyecto-mingeso\topeducation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proyecto-mingeso\topeducation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CD8D47-5815-46D8-874E-18FEDDB0D5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BD2D51-30BD-49CB-9A7D-89098477BA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6458D67F-A596-4B9E-98DC-F62F15BBE9B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>rut</t>
   </si>
@@ -47,47 +47,18 @@
     <t>puntaje</t>
   </si>
   <si>
-    <t>19.234.554-8</t>
-  </si>
-  <si>
-    <t>20.234.343-7</t>
-  </si>
-  <si>
-    <t>18.544.321-5</t>
-  </si>
-  <si>
-    <t>12.345.234-2</t>
-  </si>
-  <si>
-    <t>19.234.235-8</t>
-  </si>
-  <si>
-    <t>12.345.234-1</t>
-  </si>
-  <si>
-    <t>20.285.942-3</t>
-  </si>
-  <si>
     <t>rut1</t>
   </si>
   <si>
-    <t>rut2</t>
+    <t>20.999.124-8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -115,11 +86,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,127 +405,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574F55A7-86D2-494C-BBA7-13891E765C20}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FBC4E4-2915-4092-A97C-01204A5B7027}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>45198</v>
+        <v>45226</v>
       </c>
       <c r="C2" s="2">
-        <v>900</v>
+        <v>950</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>45198</v>
+        <v>45226</v>
       </c>
       <c r="C3" s="2">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45198</v>
-      </c>
-      <c r="C4" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45198</v>
-      </c>
-      <c r="C5" s="2">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45198</v>
-      </c>
-      <c r="C6" s="2">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45198</v>
-      </c>
-      <c r="C7" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45198</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45198</v>
-      </c>
-      <c r="C9" s="2">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45198</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
+        <v>980</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/topeducation/examen.xlsx
+++ b/topeducation/examen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proyecto-mingeso\topeducation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proyecto-mingeso-simple\proyecto-mingeso\topeducation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BD2D51-30BD-49CB-9A7D-89098477BA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CEAB76-8F79-4C03-B24D-2C0619A63969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6458D67F-A596-4B9E-98DC-F62F15BBE9B5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>rut</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>rut1</t>
-  </si>
-  <si>
-    <t>20.999.124-8</t>
   </si>
 </sst>
 </file>
@@ -86,12 +83,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +405,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,37 +414,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>45226</v>
+        <v>45254</v>
       </c>
       <c r="C2" s="2">
-        <v>950</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45226</v>
-      </c>
-      <c r="C3" s="2">
-        <v>980</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
